--- a/datatables/datas/12_monster.xlsx
+++ b/datatables/datas/12_monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\atom\datatables\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\atom\datatables\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAD915E-B04B-4ECF-945E-8D2CA539384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3CD968-DB28-4073-875A-1A20E84654D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>阵营</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -170,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,22 +552,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.234375" customWidth="1"/>
-    <col min="2" max="2" width="6.76171875" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.3515625" customWidth="1"/>
-    <col min="5" max="5" width="31.703125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -610,7 +606,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -624,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2"/>
@@ -649,7 +645,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -682,7 +678,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1">
+    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -696,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4"/>
@@ -721,7 +717,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -735,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>10001</v>
       </c>
@@ -749,7 +745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>10002</v>
       </c>
@@ -763,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>10003</v>
       </c>
@@ -775,11 +771,6 @@
       </c>
       <c r="E8">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="E13" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
